--- a/Resources/Conditional Access/The Baseline.xlsx
+++ b/Resources/Conditional Access/The Baseline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tctechnologist-my.sharepoint.com/personal/dbaker_patriotconsultingtech_com/Documents/Documents/365 Docs/Doug Presentations/Conditional Access with MFA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCode\Public-Toolbox\Resources\Conditional Access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{69A44CF1-DE9A-4E01-92B9-DB055724E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4A04DB-0D26-4FFD-B7B8-9BE94790C2C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B9875-5405-4378-85B5-2610423C36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="90" windowWidth="28800" windowHeight="16200" xr2:uid="{D17D2028-330C-4C51-B6C6-4EE470230D99}"/>
+    <workbookView xWindow="-32355" yWindow="2340" windowWidth="28800" windowHeight="16200" xr2:uid="{D17D2028-330C-4C51-B6C6-4EE470230D99}"/>
   </bookViews>
   <sheets>
     <sheet name="The Baseline" sheetId="14" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">Policy Goals
 •	Require MFA for all Admins, Users, and Guest
 •	Block Legacy Auth
-•	Set up Separate policies for Growth and aditional security </t>
+•	Set up Separate policies for Growth and additional security </t>
   </si>
 </sst>
 </file>
@@ -1203,71 +1203,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -1473,6 +1409,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -1552,13 +1531,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Patriot" pivot="0" count="7" xr9:uid="{8FA89387-387C-4503-8649-D759349424D5}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumn" dxfId="20"/>
-      <tableStyleElement type="lastColumn" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1573,15 +1552,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3DF498D0-3FD8-4A2C-A503-1DD1FCAEAAA9}" name="Table1346" displayName="Table1346" ref="A2:F89" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3DF498D0-3FD8-4A2C-A503-1DD1FCAEAAA9}" name="Table1346" displayName="Table1346" ref="A2:F89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F89" xr:uid="{5B2E6E45-7AEE-489A-BACA-36806BF03EA1}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8A07DD88-2CBC-4307-A541-01BC4BF0B470}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{F00100C2-4502-4E7B-8CE5-B95AFCC8A9BA}" name=" " dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C0ED6D60-F6E4-4E88-9798-50F619180252}" name="[MFA] Admin Accounts" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6032D45C-F72C-4896-974C-BE8A02122AF5}" name="[MFA] Standard Users" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{93EF69B5-90AD-49C6-AD71-9A0522C97074}" name="[Block] Legacy Auth" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6DD5CBB9-C27F-452C-A49A-C0524A87EB94}" name="[MFA] Guest Users" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8A07DD88-2CBC-4307-A541-01BC4BF0B470}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F00100C2-4502-4E7B-8CE5-B95AFCC8A9BA}" name=" " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C0ED6D60-F6E4-4E88-9798-50F619180252}" name="[MFA] Admin Accounts" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6032D45C-F72C-4896-974C-BE8A02122AF5}" name="[MFA] Standard Users" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{93EF69B5-90AD-49C6-AD71-9A0522C97074}" name="[Block] Legacy Auth" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6DD5CBB9-C27F-452C-A49A-C0524A87EB94}" name="[MFA] Guest Users" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1890,7 +1869,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2849,32 +2828,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:F29">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B89">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:F79">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:F89">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1 C2:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3492,6 +3471,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F29D3009E9E274093D7DE0F36E4BF81" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9fa5088e7bdfbd78a2f3381dd5f765e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e08b53c0-ed18-452d-9046-a841883ce082" xmlns:ns4="b73e6497-3420-4fc4-88b8-48ea7b91d22a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8ca5d310383c95d4ae4828cf6b73d50" ns3:_="" ns4:_="">
     <xsd:import namespace="e08b53c0-ed18-452d-9046-a841883ce082"/>
@@ -3708,36 +3702,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261D9B81-22CC-4DA9-9D47-3CE6EF1BD1F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083C3B82-9111-44EE-993E-A1D077F4430D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e08b53c0-ed18-452d-9046-a841883ce082"/>
-    <ds:schemaRef ds:uri="b73e6497-3420-4fc4-88b8-48ea7b91d22a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3760,9 +3728,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083C3B82-9111-44EE-993E-A1D077F4430D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261D9B81-22CC-4DA9-9D47-3CE6EF1BD1F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e08b53c0-ed18-452d-9046-a841883ce082"/>
+    <ds:schemaRef ds:uri="b73e6497-3420-4fc4-88b8-48ea7b91d22a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
